--- a/research/doi_top40_review_week1.xlsx
+++ b/research/doi_top40_review_week1.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JanMc\Dropbox\Education\_GitHub_coursework\janmcconnellCityU-coursework\DS687_CAPSTONE\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{522CA450-93C9-4288-B191-DA7BD3286C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A46BFD-9E5D-44D6-B902-9E64662163E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{2CF2EB2E-A078-46E4-9DE9-0737B4A6B80B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CF2EB2E-A078-46E4-9DE9-0737B4A6B80B}"/>
   </bookViews>
   <sheets>
     <sheet name="doi_shortlist_top40_with_abstra" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="175">
   <si>
     <t>year</t>
   </si>
@@ -524,9 +537,6 @@
   </si>
   <si>
     <t>background/survey</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>not relevent</t>
@@ -1123,21 +1133,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1150,6 +1155,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1168,18 +1188,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A03A8C89-F54A-4CC6-93FB-EF6E1B26B8D5}" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A03A8C89-F54A-4CC6-93FB-EF6E1B26B8D5}" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A1:I41" xr:uid="{A03A8C89-F54A-4CC6-93FB-EF6E1B26B8D5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1B021444-315E-43F9-8CDE-3DCCC7AF053A}" name="year" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6BE5B41E-AEDC-45A5-B823-BF0F48216EFE}" name="title" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{48E19B24-0CF6-4D04-BD7E-3E737FF8861F}" name="venue" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{178F463B-0929-42DB-870F-28567F82CA97}" name="doi" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DE90FBD8-B541-4DE0-94D8-12E5DB53B6CD}" name="score" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6506E1DC-8F22-4D89-AA13-47F07870C6C3}" name="abstract" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{482A00B8-516A-4D66-B9C7-997AAD7EB943}" name="category" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{5A786790-B3A1-43AC-87A0-4A0C394F82E4}" name="week 1 pick" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{C238EA5D-CBF0-4D20-AE92-AC47DAB72176}" name="justification" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{1B021444-315E-43F9-8CDE-3DCCC7AF053A}" name="year" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BE5B41E-AEDC-45A5-B823-BF0F48216EFE}" name="title" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{48E19B24-0CF6-4D04-BD7E-3E737FF8861F}" name="venue" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{178F463B-0929-42DB-870F-28567F82CA97}" name="doi" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{DE90FBD8-B541-4DE0-94D8-12E5DB53B6CD}" name="score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6506E1DC-8F22-4D89-AA13-47F07870C6C3}" name="abstract" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{482A00B8-516A-4D66-B9C7-997AAD7EB943}" name="category" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{5A786790-B3A1-43AC-87A0-4A0C394F82E4}" name="week 1 pick" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C238EA5D-CBF0-4D20-AE92-AC47DAB72176}" name="justification" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1504,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D788E8-A0E9-4814-A3ED-7E1AC7EED0AF}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -1571,7 +1591,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -1598,7 +1618,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1625,7 +1645,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -1652,7 +1672,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1677,11 +1697,9 @@
       <c r="G6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="300" x14ac:dyDescent="0.25">
@@ -2026,11 +2044,11 @@
         <v>80</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2053,11 +2071,11 @@
         <v>84</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -2172,11 +2190,11 @@
         <v>102</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -2249,7 +2267,7 @@
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -2368,7 +2386,7 @@
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2418,7 +2436,7 @@
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2441,11 +2459,11 @@
         <v>142</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -2495,7 +2513,7 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -2522,6 +2540,9 @@
       <c r="I41" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{2F3C4EC6-1D30-4D50-AAC1-574BD2DBC10C}">
       <formula1>"problem framing,method/model,application/empirical,background/survey,not relevent"</formula1>
